--- a/03-Pandas/data/mi_df_multiple.xlsx
+++ b/03-Pandas/data/mi_df_multiple.xlsx
@@ -40,30 +40,30 @@
     <t>Watts, George Frederic</t>
   </si>
   <si>
+    <t>Lear, Edward</t>
+  </si>
+  <si>
     <t>Keene, Charles Samuel</t>
   </si>
   <si>
-    <t>Lear, Edward</t>
-  </si>
-  <si>
     <t>Brown, Ford Madox</t>
   </si>
   <si>
+    <t>Reynolds, Sir Joshua</t>
+  </si>
+  <si>
+    <t>Stevens, Alfred</t>
+  </si>
+  <si>
     <t>Wilkie, Sir David</t>
   </si>
   <si>
-    <t>Stevens, Alfred</t>
-  </si>
-  <si>
-    <t>Reynolds, Sir Joshua</t>
+    <t>Rossetti, Dante Gabriel</t>
   </si>
   <si>
     <t>Wilson, Richard</t>
   </si>
   <si>
-    <t>Rossetti, Dante Gabriel</t>
-  </si>
-  <si>
     <t>Stothard, Thomas</t>
   </si>
   <si>
@@ -76,58 +76,61 @@
     <t>Millais, Sir John Everett, Bt</t>
   </si>
   <si>
+    <t>Leslie, Charles Robert</t>
+  </si>
+  <si>
+    <t>British School 18th century</t>
+  </si>
+  <si>
     <t>Nasmyth, Patrick</t>
   </si>
   <si>
     <t>Etty, William</t>
   </si>
   <si>
-    <t>Leslie, Charles Robert</t>
-  </si>
-  <si>
-    <t>British School 18th century</t>
+    <t>Smetham, James</t>
+  </si>
+  <si>
+    <t>Scott, Samuel</t>
+  </si>
+  <si>
+    <t>Lawrence, Sir Thomas</t>
   </si>
   <si>
     <t>Dayes, Edward</t>
   </si>
   <si>
-    <t>Lawrence, Sir Thomas</t>
-  </si>
-  <si>
-    <t>Scott, Samuel</t>
-  </si>
-  <si>
-    <t>Smetham, James</t>
-  </si>
-  <si>
     <t>Callcott, Sir Augustus Wall</t>
   </si>
   <si>
+    <t>Hogarth, William</t>
+  </si>
+  <si>
+    <t>Romney, George</t>
+  </si>
+  <si>
     <t>Mulready, William</t>
   </si>
   <si>
-    <t>Romney, George</t>
-  </si>
-  <si>
-    <t>Hogarth, William</t>
-  </si>
-  <si>
     <t>Crome, John</t>
   </si>
   <si>
+    <t>Brabazon, Hercules Brabazon</t>
+  </si>
+  <si>
+    <t>Morland, George</t>
+  </si>
+  <si>
+    <t>Leighton, Lord Frederic</t>
+  </si>
+  <si>
+    <t>Lewis, John Frederick</t>
+  </si>
+  <si>
     <t>Hilton, William, the Younger</t>
   </si>
   <si>
-    <t>Brabazon, Hercules Brabazon</t>
-  </si>
-  <si>
-    <t>Morland, George</t>
-  </si>
-  <si>
-    <t>Leighton, Lord Frederic</t>
-  </si>
-  <si>
-    <t>Lewis, John Frederick</t>
+    <t>Cox, David</t>
   </si>
   <si>
     <t>Hoppner, John</t>
@@ -136,7 +139,22 @@
     <t>Blake, William</t>
   </si>
   <si>
-    <t>Cox, David</t>
+    <t>Lee, Frederick Richard</t>
+  </si>
+  <si>
+    <t>Opie, John</t>
+  </si>
+  <si>
+    <t>Charles, James</t>
+  </si>
+  <si>
+    <t>Goodwin, Albert</t>
+  </si>
+  <si>
+    <t>Linnell, John</t>
+  </si>
+  <si>
+    <t>Jones, George</t>
   </si>
   <si>
     <t>Ward, James</t>
@@ -145,106 +163,112 @@
     <t>Walker, Frederick</t>
   </si>
   <si>
-    <t>Opie, John</t>
-  </si>
-  <si>
     <t>Riviere, Briton</t>
   </si>
   <si>
-    <t>Lee, Frederick Richard</t>
-  </si>
-  <si>
-    <t>Goodwin, Albert</t>
-  </si>
-  <si>
-    <t>Linnell, John</t>
-  </si>
-  <si>
-    <t>Charles, James</t>
-  </si>
-  <si>
-    <t>Jones, George</t>
+    <t>Legros, Alphonse</t>
+  </si>
+  <si>
+    <t>Cooke, Edward William</t>
   </si>
   <si>
     <t>Smirke, Robert</t>
   </si>
   <si>
+    <t>West, Benjamin</t>
+  </si>
+  <si>
+    <t>Cattermole, George</t>
+  </si>
+  <si>
+    <t>Hook, James Clarke</t>
+  </si>
+  <si>
     <t>Eastlake, Sir Charles Lock</t>
   </si>
   <si>
     <t>Hunt, William Henry</t>
   </si>
   <si>
+    <t>Deverell, Walter Howell</t>
+  </si>
+  <si>
     <t>Copley, John Singleton</t>
   </si>
   <si>
-    <t>Cooke, Edward William</t>
-  </si>
-  <si>
-    <t>Cattermole, George</t>
-  </si>
-  <si>
-    <t>Legros, Alphonse</t>
-  </si>
-  <si>
-    <t>West, Benjamin</t>
-  </si>
-  <si>
-    <t>Deverell, Walter Howell</t>
-  </si>
-  <si>
-    <t>Hook, James Clarke</t>
+    <t>Waterhouse, John William</t>
+  </si>
+  <si>
+    <t>Collins, William</t>
+  </si>
+  <si>
+    <t>Stanfield, Clarkson Frederick</t>
+  </si>
+  <si>
+    <t>Gilpin, Sawrey</t>
+  </si>
+  <si>
+    <t>Good, Thomas Sword</t>
+  </si>
+  <si>
+    <t>Roberts, David</t>
+  </si>
+  <si>
+    <t>Landseer, Charles</t>
+  </si>
+  <si>
+    <t>Cooper, Thomas Sidney</t>
   </si>
   <si>
     <t>Penley, Aaron Edwin</t>
   </si>
   <si>
-    <t>Waterhouse, John William</t>
-  </si>
-  <si>
     <t>Orchardson, Sir William Quiller</t>
   </si>
   <si>
-    <t>Collins, William</t>
+    <t>Sandby, Paul</t>
+  </si>
+  <si>
+    <t>Ward, Edward Matthew</t>
+  </si>
+  <si>
+    <t>Raeburn, Sir Henry</t>
+  </si>
+  <si>
+    <t>Gilbert, Sir John</t>
+  </si>
+  <si>
+    <t>Barker, Thomas, of Bath</t>
+  </si>
+  <si>
+    <t>Lance, George</t>
   </si>
   <si>
     <t>Brock, Sir Thomas</t>
   </si>
   <si>
-    <t>Barker, Thomas, of Bath</t>
-  </si>
-  <si>
-    <t>Stanfield, Clarkson Frederick</t>
-  </si>
-  <si>
-    <t>Landseer, Charles</t>
-  </si>
-  <si>
-    <t>Cooper, Thomas Sidney</t>
-  </si>
-  <si>
-    <t>Ward, Edward Matthew</t>
-  </si>
-  <si>
-    <t>Roberts, David</t>
-  </si>
-  <si>
-    <t>Gilpin, Sawrey</t>
-  </si>
-  <si>
-    <t>Gilbert, Sir John</t>
-  </si>
-  <si>
-    <t>Lance, George</t>
-  </si>
-  <si>
-    <t>Good, Thomas Sword</t>
-  </si>
-  <si>
-    <t>Raeburn, Sir Henry</t>
-  </si>
-  <si>
-    <t>Sandby, Paul</t>
+    <t>Maclise, Daniel</t>
+  </si>
+  <si>
+    <t>Williams, Penry</t>
+  </si>
+  <si>
+    <t>Shee, Sir Martin Archer</t>
+  </si>
+  <si>
+    <t>Steer, Philip Wilson</t>
+  </si>
+  <si>
+    <t>Davis, Henry William Banks</t>
+  </si>
+  <si>
+    <t>Faed, Thomas</t>
+  </si>
+  <si>
+    <t>Webster, Thomas</t>
+  </si>
+  <si>
+    <t>Beechey, Sir William</t>
   </si>
   <si>
     <t>Turner, William, of Oxford</t>
@@ -253,1087 +277,1063 @@
     <t>Macallum, Hamilton</t>
   </si>
   <si>
-    <t>Webster, Thomas</t>
-  </si>
-  <si>
-    <t>Beechey, Sir William</t>
+    <t>Gow, Andrew Carrick</t>
+  </si>
+  <si>
+    <t>Mason, George</t>
+  </si>
+  <si>
+    <t>Fantin-Latour, Henri</t>
+  </si>
+  <si>
+    <t>Johnson, Cornelius</t>
+  </si>
+  <si>
+    <t>Ford, Edward Onslow</t>
+  </si>
+  <si>
+    <t>Tonks, Henry</t>
   </si>
   <si>
     <t>Goodall, Frederick</t>
   </si>
   <si>
-    <t>Faed, Thomas</t>
+    <t>Sargent, John Singer</t>
+  </si>
+  <si>
+    <t>Bates, Harry</t>
   </si>
   <si>
     <t>Pickersgill, Henry William</t>
   </si>
   <si>
-    <t>Gow, Andrew Carrick</t>
-  </si>
-  <si>
-    <t>Tonks, Henry</t>
-  </si>
-  <si>
-    <t>Mason, George</t>
-  </si>
-  <si>
-    <t>Ford, Edward Onslow</t>
-  </si>
-  <si>
-    <t>Bates, Harry</t>
-  </si>
-  <si>
-    <t>Johnson, Cornelius</t>
-  </si>
-  <si>
-    <t>Shee, Sir Martin Archer</t>
-  </si>
-  <si>
     <t>Weekes, Henry</t>
   </si>
   <si>
-    <t>Fantin-Latour, Henri</t>
-  </si>
-  <si>
-    <t>Williams, Penry</t>
-  </si>
-  <si>
-    <t>Sargent, John Singer</t>
-  </si>
-  <si>
-    <t>Davis, Henry William Banks</t>
-  </si>
-  <si>
-    <t>Steer, Philip Wilson</t>
-  </si>
-  <si>
-    <t>Maclise, Daniel</t>
+    <t>Reid, John Robertson</t>
+  </si>
+  <si>
+    <t>Stuart, Gilbert</t>
+  </si>
+  <si>
+    <t>Wyatt, Henry</t>
+  </si>
+  <si>
+    <t>Burne-Jones, Sir Edward Coley, Bt</t>
+  </si>
+  <si>
+    <t>Nicol, Erskine</t>
+  </si>
+  <si>
+    <t>Cowper, Frank Cadogan</t>
+  </si>
+  <si>
+    <t>Corbet, Matthew Ridley</t>
+  </si>
+  <si>
+    <t>Poynter, Sir Edward</t>
+  </si>
+  <si>
+    <t>Callow, William</t>
+  </si>
+  <si>
+    <t>Hunt, William Holman</t>
+  </si>
+  <si>
+    <t>Haydon, Benjamin Robert</t>
+  </si>
+  <si>
+    <t>Jackson, John</t>
+  </si>
+  <si>
+    <t>Constable, Lionel Bicknell</t>
+  </si>
+  <si>
+    <t>Leslie, George Dunlop</t>
+  </si>
+  <si>
+    <t>Geddes, Andrew</t>
+  </si>
+  <si>
+    <t>Gilbert, Sir Alfred</t>
+  </si>
+  <si>
+    <t>Clausen, Sir George</t>
+  </si>
+  <si>
+    <t>Thomas, James Havard</t>
+  </si>
+  <si>
+    <t>Ruskin, John</t>
+  </si>
+  <si>
+    <t>Lancaster, Rev. Richard Hume</t>
+  </si>
+  <si>
+    <t>Varley, John</t>
+  </si>
+  <si>
+    <t>Bonington, Richard Parkes</t>
+  </si>
+  <si>
+    <t>Phillip, John</t>
+  </si>
+  <si>
+    <t>British School 19th century</t>
   </si>
   <si>
     <t>Morland, Henry Robert</t>
   </si>
   <si>
+    <t>Brown, Sir Arnesby</t>
+  </si>
+  <si>
+    <t>Farquharson, David</t>
+  </si>
+  <si>
+    <t>Briggs, Henry Perronet</t>
+  </si>
+  <si>
+    <t>Holl, Frank</t>
+  </si>
+  <si>
+    <t>Pinwell, George John</t>
+  </si>
+  <si>
+    <t>Uwins, Thomas</t>
+  </si>
+  <si>
+    <t>Baily, Edward Hodges</t>
+  </si>
+  <si>
+    <t>Pegram, Henry Alfred</t>
+  </si>
+  <si>
+    <t>Armstead, Henry Hugh</t>
+  </si>
+  <si>
+    <t>Pettie, John</t>
+  </si>
+  <si>
+    <t>Chantrey, Sir Francis Legatt</t>
+  </si>
+  <si>
+    <t>Egg, Augustus Leopold</t>
+  </si>
+  <si>
+    <t>Stokes, Adrian</t>
+  </si>
+  <si>
+    <t>Holland, James</t>
+  </si>
+  <si>
+    <t>Dupont, Gainsborough</t>
+  </si>
+  <si>
+    <t>Potter, Frank Huddlestone</t>
+  </si>
+  <si>
+    <t>Hemy, Charles Napier</t>
+  </si>
+  <si>
+    <t>Waller, Samuel</t>
+  </si>
+  <si>
+    <t>Murray, Sir David</t>
+  </si>
+  <si>
+    <t>Boehm, Sir Joseph Edgar</t>
+  </si>
+  <si>
     <t>Cotes, Francis</t>
   </si>
   <si>
-    <t>Egg, Augustus Leopold</t>
-  </si>
-  <si>
-    <t>Clausen, Sir George</t>
-  </si>
-  <si>
-    <t>Jackson, John</t>
+    <t>Creswick, Thomas</t>
+  </si>
+  <si>
+    <t>Witherington, William Frederick</t>
+  </si>
+  <si>
+    <t>Maccallum, Andrew</t>
+  </si>
+  <si>
+    <t>Sims, Charles</t>
+  </si>
+  <si>
+    <t>Poole, Paul Falconer</t>
+  </si>
+  <si>
+    <t>Colton, William Robert</t>
+  </si>
+  <si>
+    <t>Singleton, Henry</t>
+  </si>
+  <si>
+    <t>Rothenstein, Sir William</t>
+  </si>
+  <si>
+    <t>Alma-Tadema, Sir Lawrence</t>
+  </si>
+  <si>
+    <t>Orpen, Sir William</t>
+  </si>
+  <si>
+    <t>Newton, Gilbert Stuart</t>
+  </si>
+  <si>
+    <t>Aumonier, James</t>
+  </si>
+  <si>
+    <t>Dicksee, Sir Frank</t>
+  </si>
+  <si>
+    <t>Calvert, Edward</t>
+  </si>
+  <si>
+    <t>Robinson, Sir John Charles</t>
   </si>
   <si>
     <t>Mackennal, Sir Bertram</t>
   </si>
   <si>
-    <t>Leslie, George Dunlop</t>
-  </si>
-  <si>
-    <t>Calvert, Edward</t>
-  </si>
-  <si>
-    <t>Stuart, Gilbert</t>
-  </si>
-  <si>
-    <t>Rothenstein, Sir William</t>
-  </si>
-  <si>
-    <t>Wyatt, Henry</t>
+    <t>Fraser, Alexander</t>
+  </si>
+  <si>
+    <t>Tuke, Henry Scott</t>
+  </si>
+  <si>
+    <t>Knight, John Baverstock</t>
   </si>
   <si>
     <t>Sadler, Walter Dendy</t>
   </si>
   <si>
+    <t>Brett, John</t>
+  </si>
+  <si>
+    <t>Poynter, Ambrose</t>
+  </si>
+  <si>
+    <t>Cotman, John Sell</t>
+  </si>
+  <si>
+    <t>Hartwell, Charles Leonard</t>
+  </si>
+  <si>
+    <t>Furse, Charles Wellington</t>
+  </si>
+  <si>
+    <t>Lanteri, Edouard</t>
+  </si>
+  <si>
+    <t>Lewis, George Robert</t>
+  </si>
+  <si>
+    <t>Wyllie, William Lionel</t>
+  </si>
+  <si>
+    <t>Peacock, Ralph</t>
+  </si>
+  <si>
+    <t>Bell, Robert Anning</t>
+  </si>
+  <si>
+    <t>Ibbetson, Julius Caesar</t>
+  </si>
+  <si>
+    <t>Clark, Joseph</t>
+  </si>
+  <si>
+    <t>Storey, George Adolphus</t>
+  </si>
+  <si>
+    <t>Dyce, William</t>
+  </si>
+  <si>
+    <t>Frith, William Powell</t>
+  </si>
+  <si>
+    <t>Von Herkomer, Sir Hubert</t>
+  </si>
+  <si>
+    <t>Strang, William</t>
+  </si>
+  <si>
+    <t>Pomeroy, Frederick William</t>
+  </si>
+  <si>
     <t>Whistler, James Abbott McNeill</t>
   </si>
   <si>
-    <t>Gilbert, Sir Alfred</t>
-  </si>
-  <si>
-    <t>Strang, William</t>
-  </si>
-  <si>
-    <t>Hemy, Charles Napier</t>
-  </si>
-  <si>
-    <t>Pomeroy, Frederick William</t>
-  </si>
-  <si>
-    <t>Maccallum, Andrew</t>
-  </si>
-  <si>
-    <t>Dupont, Gainsborough</t>
-  </si>
-  <si>
-    <t>Fraser, Alexander</t>
-  </si>
-  <si>
-    <t>Creswick, Thomas</t>
-  </si>
-  <si>
-    <t>Phillip, John</t>
-  </si>
-  <si>
-    <t>Robinson, Sir John Charles</t>
-  </si>
-  <si>
-    <t>Varley, John</t>
-  </si>
-  <si>
-    <t>Hartwell, Charles Leonard</t>
-  </si>
-  <si>
-    <t>Waller, Samuel</t>
-  </si>
-  <si>
-    <t>Cowper, Frank Cadogan</t>
-  </si>
-  <si>
-    <t>Ibbetson, Julius Caesar</t>
-  </si>
-  <si>
-    <t>Storey, George Adolphus</t>
-  </si>
-  <si>
-    <t>Haydon, Benjamin Robert</t>
-  </si>
-  <si>
-    <t>Cotman, John Sell</t>
-  </si>
-  <si>
-    <t>Lewis, George Robert</t>
-  </si>
-  <si>
-    <t>Singleton, Henry</t>
-  </si>
-  <si>
-    <t>Burne-Jones, Sir Edward Coley, Bt</t>
-  </si>
-  <si>
-    <t>Clark, Joseph</t>
-  </si>
-  <si>
-    <t>Dicksee, Sir Frank</t>
-  </si>
-  <si>
-    <t>Armstead, Henry Hugh</t>
-  </si>
-  <si>
-    <t>Callow, William</t>
-  </si>
-  <si>
-    <t>Von Herkomer, Sir Hubert</t>
-  </si>
-  <si>
-    <t>Newton, Gilbert Stuart</t>
-  </si>
-  <si>
-    <t>Thomas, James Havard</t>
-  </si>
-  <si>
-    <t>Farquharson, David</t>
-  </si>
-  <si>
-    <t>Boehm, Sir Joseph Edgar</t>
-  </si>
-  <si>
-    <t>Uwins, Thomas</t>
-  </si>
-  <si>
-    <t>Tuke, Henry Scott</t>
-  </si>
-  <si>
-    <t>Potter, Frank Huddlestone</t>
-  </si>
-  <si>
-    <t>Furse, Charles Wellington</t>
-  </si>
-  <si>
-    <t>Poynter, Ambrose</t>
-  </si>
-  <si>
-    <t>Aumonier, James</t>
-  </si>
-  <si>
-    <t>Holl, Frank</t>
-  </si>
-  <si>
-    <t>Knight, John Baverstock</t>
-  </si>
-  <si>
-    <t>Ruskin, John</t>
-  </si>
-  <si>
-    <t>Murray, Sir David</t>
-  </si>
-  <si>
-    <t>Poole, Paul Falconer</t>
-  </si>
-  <si>
-    <t>Sims, Charles</t>
-  </si>
-  <si>
-    <t>Bonington, Richard Parkes</t>
-  </si>
-  <si>
-    <t>Baily, Edward Hodges</t>
-  </si>
-  <si>
-    <t>Corbet, Matthew Ridley</t>
-  </si>
-  <si>
-    <t>Holland, James</t>
-  </si>
-  <si>
-    <t>Lanteri, Edouard</t>
-  </si>
-  <si>
-    <t>Colton, William Robert</t>
-  </si>
-  <si>
-    <t>Brett, John</t>
-  </si>
-  <si>
-    <t>Poynter, Sir Edward</t>
-  </si>
-  <si>
-    <t>Reid, John Robertson</t>
-  </si>
-  <si>
-    <t>Alma-Tadema, Sir Lawrence</t>
-  </si>
-  <si>
-    <t>Pinwell, George John</t>
-  </si>
-  <si>
-    <t>Constable, Lionel Bicknell</t>
-  </si>
-  <si>
-    <t>Hunt, William Holman</t>
-  </si>
-  <si>
-    <t>Bell, Robert Anning</t>
-  </si>
-  <si>
-    <t>British School 19th century</t>
-  </si>
-  <si>
-    <t>Geddes, Andrew</t>
-  </si>
-  <si>
-    <t>Chantrey, Sir Francis Legatt</t>
-  </si>
-  <si>
-    <t>Brown, Sir Arnesby</t>
-  </si>
-  <si>
-    <t>Briggs, Henry Perronet</t>
-  </si>
-  <si>
-    <t>Stokes, Adrian</t>
-  </si>
-  <si>
-    <t>Dyce, William</t>
-  </si>
-  <si>
-    <t>Pegram, Henry Alfred</t>
-  </si>
-  <si>
-    <t>Witherington, William Frederick</t>
-  </si>
-  <si>
-    <t>Lancaster, Rev. Richard Hume</t>
-  </si>
-  <si>
-    <t>Wyllie, William Lionel</t>
-  </si>
-  <si>
-    <t>Orpen, Sir William</t>
-  </si>
-  <si>
-    <t>Peacock, Ralph</t>
-  </si>
-  <si>
-    <t>Frith, William Powell</t>
-  </si>
-  <si>
-    <t>Nicol, Erskine</t>
-  </si>
-  <si>
-    <t>Pettie, John</t>
+    <t>Forbes, Stanhope Alexander</t>
+  </si>
+  <si>
+    <t>Rushbury, Sir Henry</t>
+  </si>
+  <si>
+    <t>Kennington, Thomas Benjamin</t>
+  </si>
+  <si>
+    <t>Millet, Francis Davis</t>
+  </si>
+  <si>
+    <t>Cole, George Vicat</t>
+  </si>
+  <si>
+    <t>Kelly, Sir Gerald</t>
+  </si>
+  <si>
+    <t>Lane, Theodore</t>
+  </si>
+  <si>
+    <t>Dadd, Frank</t>
+  </si>
+  <si>
+    <t>Jack, Richard</t>
+  </si>
+  <si>
+    <t>Stanley, Lady Dorothy</t>
+  </si>
+  <si>
+    <t>Knight, Joseph</t>
+  </si>
+  <si>
+    <t>Logsdail, William</t>
+  </si>
+  <si>
+    <t>Bettes, John</t>
+  </si>
+  <si>
+    <t>Reynolds-Stephens, Sir William</t>
+  </si>
+  <si>
+    <t>Scott, William Bell</t>
+  </si>
+  <si>
+    <t>Inchbold, John William</t>
+  </si>
+  <si>
+    <t>Lucas, John Seymour</t>
+  </si>
+  <si>
+    <t>Woodward, Thomas</t>
+  </si>
+  <si>
+    <t>Woods, Henry</t>
+  </si>
+  <si>
+    <t>Pickersgill, Frederick Richard</t>
+  </si>
+  <si>
+    <t>Bundy, Edgar</t>
+  </si>
+  <si>
+    <t>Hand, Thomas</t>
+  </si>
+  <si>
+    <t>Hudson, Thomas</t>
+  </si>
+  <si>
+    <t>O'Neill, George Bernard</t>
+  </si>
+  <si>
+    <t>Wood, F. Derwent</t>
+  </si>
+  <si>
+    <t>Foster, Myles Birket</t>
+  </si>
+  <si>
+    <t>Gulich, John</t>
+  </si>
+  <si>
+    <t>Douglas, Sir William Fettes</t>
+  </si>
+  <si>
+    <t>Westall, Richard</t>
+  </si>
+  <si>
+    <t>Abbott, Lemuel Francis</t>
+  </si>
+  <si>
+    <t>Hunter, Colin</t>
+  </si>
+  <si>
+    <t>Shannon, Sir James Jebusa</t>
+  </si>
+  <si>
+    <t>McEvoy, Ambrose</t>
+  </si>
+  <si>
+    <t>Collier, The Hon. John</t>
+  </si>
+  <si>
+    <t>Phillips, Thomas</t>
+  </si>
+  <si>
+    <t>Smith, Frederick William</t>
+  </si>
+  <si>
+    <t>Rombaux, Egide</t>
+  </si>
+  <si>
+    <t>Brown, Mortimer</t>
+  </si>
+  <si>
+    <t>Parsons, Alfred</t>
+  </si>
+  <si>
+    <t>Hayes, Edwin</t>
+  </si>
+  <si>
+    <t>Dall, Nicholas Thomas</t>
+  </si>
+  <si>
+    <t>Thomson, Rev. John, of Duddingston</t>
+  </si>
+  <si>
+    <t>Gotch, Thomas Cooper</t>
+  </si>
+  <si>
+    <t>Cozens, Alexander</t>
+  </si>
+  <si>
+    <t>Crane, Walter</t>
+  </si>
+  <si>
+    <t>Craig, Frank</t>
+  </si>
+  <si>
+    <t>Branwhite, Nathan</t>
+  </si>
+  <si>
+    <t>Hurlstone, Frederick Yeates</t>
+  </si>
+  <si>
+    <t>Butler, Samuel</t>
+  </si>
+  <si>
+    <t>Wyck, Jan</t>
+  </si>
+  <si>
+    <t>Ricketts, Charles</t>
+  </si>
+  <si>
+    <t>Parton, Ernest</t>
+  </si>
+  <si>
+    <t>Bridell, Frederick Lee</t>
+  </si>
+  <si>
+    <t>Zoffany, Johan</t>
+  </si>
+  <si>
+    <t>Chandler, J.W.</t>
+  </si>
+  <si>
+    <t>Rivers, Leopold</t>
+  </si>
+  <si>
+    <t>British (?) School 19th century</t>
+  </si>
+  <si>
+    <t>Stone, Marcus</t>
+  </si>
+  <si>
+    <t>Fisher, Melton</t>
+  </si>
+  <si>
+    <t>Seddon, Thomas</t>
+  </si>
+  <si>
+    <t>Hunt, Walter</t>
+  </si>
+  <si>
+    <t>Wyllie, Charles William</t>
+  </si>
+  <si>
+    <t>Nisbet, Robert Buchan</t>
+  </si>
+  <si>
+    <t>West, Walter</t>
+  </si>
+  <si>
+    <t>Charnay, Armand</t>
+  </si>
+  <si>
+    <t>Moore, Albert</t>
+  </si>
+  <si>
+    <t>Appleyard, Fred</t>
+  </si>
+  <si>
+    <t>Arnald, George</t>
+  </si>
+  <si>
+    <t>Haynes-Williams, John</t>
+  </si>
+  <si>
+    <t>Cozens, John Robert</t>
+  </si>
+  <si>
+    <t>Rippingille, Edward Villiers</t>
+  </si>
+  <si>
+    <t>Butler, Elizabeth</t>
+  </si>
+  <si>
+    <t>Friedenson, Arthur</t>
+  </si>
+  <si>
+    <t>Simpson, John</t>
+  </si>
+  <si>
+    <t>Toft, Albert</t>
+  </si>
+  <si>
+    <t>Lavery, Sir John</t>
+  </si>
+  <si>
+    <t>Maundrell, Charles</t>
+  </si>
+  <si>
+    <t>Watson, Harry</t>
+  </si>
+  <si>
+    <t>Douglas, Edwin</t>
+  </si>
+  <si>
+    <t>Haghe, Louis</t>
+  </si>
+  <si>
+    <t>MacWhirter, John</t>
+  </si>
+  <si>
+    <t>British School 17th century</t>
+  </si>
+  <si>
+    <t>Dixon, Harry</t>
+  </si>
+  <si>
+    <t>Cruikshank, George</t>
+  </si>
+  <si>
+    <t>Vacher, Charles</t>
+  </si>
+  <si>
+    <t>Muhrman, Henry</t>
+  </si>
+  <si>
+    <t>Graham, Peter</t>
+  </si>
+  <si>
+    <t>Waterlow, Sir Ernest Albert</t>
+  </si>
+  <si>
+    <t>Butler, Mildred Anne</t>
+  </si>
+  <si>
+    <t>Knight, Charles Parsons</t>
+  </si>
+  <si>
+    <t>Glover, John</t>
+  </si>
+  <si>
+    <t>Wiens, Stephen M.</t>
+  </si>
+  <si>
+    <t>Philpot, Glyn Warren</t>
+  </si>
+  <si>
+    <t>Strudwick, John Melhuish</t>
+  </si>
+  <si>
+    <t>Cockram, George</t>
+  </si>
+  <si>
+    <t>Mauve, Anton</t>
+  </si>
+  <si>
+    <t>Schetky, John Christian</t>
+  </si>
+  <si>
+    <t>Richmond, George</t>
+  </si>
+  <si>
+    <t>Dobson, William</t>
+  </si>
+  <si>
+    <t>Holmes, Sir Charles John</t>
+  </si>
+  <si>
+    <t>Somerscales, Thomas J.</t>
+  </si>
+  <si>
+    <t>Smythe, Lionel Percy</t>
+  </si>
+  <si>
+    <t>Williams, Edward</t>
+  </si>
+  <si>
+    <t>Crome, John Berney</t>
+  </si>
+  <si>
+    <t>North, John William</t>
+  </si>
+  <si>
+    <t>Fildes, Sir Luke</t>
+  </si>
+  <si>
+    <t>Kneller, Sir Godfrey</t>
+  </si>
+  <si>
+    <t>Bramley, Frank</t>
+  </si>
+  <si>
+    <t>Peppercorn, Arthur Douglas</t>
+  </si>
+  <si>
+    <t>Linton, William</t>
+  </si>
+  <si>
+    <t>Greiffenhagen, Maurice</t>
+  </si>
+  <si>
+    <t>Gow, Mary</t>
+  </si>
+  <si>
+    <t>Hart, Solomon Alexander</t>
+  </si>
+  <si>
+    <t>Glendening, Alfred</t>
+  </si>
+  <si>
+    <t>Bock, Théophile de</t>
+  </si>
+  <si>
+    <t>Harding, James Duffield</t>
+  </si>
+  <si>
+    <t>Lion, Flora</t>
+  </si>
+  <si>
+    <t>Hacker, Arthur</t>
+  </si>
+  <si>
+    <t>Leslie, Alexander J.</t>
+  </si>
+  <si>
+    <t>Hatherell, William</t>
+  </si>
+  <si>
+    <t>Stevenson, James</t>
+  </si>
+  <si>
+    <t>Scott, David</t>
+  </si>
+  <si>
+    <t>Kerr, Charles Henry Malcolm</t>
   </si>
   <si>
     <t>John, Sir William Goscombe</t>
   </si>
   <si>
+    <t>Fisher, Mark</t>
+  </si>
+  <si>
+    <t>Martin, John</t>
+  </si>
+  <si>
+    <t>Owen, Rev. Edward Pryce</t>
+  </si>
+  <si>
+    <t>Allen, Joseph William</t>
+  </si>
+  <si>
+    <t>Behnes, William</t>
+  </si>
+  <si>
+    <t>Slaughter, Stephen</t>
+  </si>
+  <si>
+    <t>Gibson, John</t>
+  </si>
+  <si>
+    <t>Kemp-Welch, Lucy</t>
+  </si>
+  <si>
+    <t>Beaumont, Sir George Howland, Bt</t>
+  </si>
+  <si>
+    <t>Whitcombe, Thomas</t>
+  </si>
+  <si>
+    <t>Turner, Daniel</t>
+  </si>
+  <si>
+    <t>Hughes-Stanton, Sir Herbert</t>
+  </si>
+  <si>
+    <t>Lemon, Arthur</t>
+  </si>
+  <si>
+    <t>Zuloaga, Ignacio</t>
+  </si>
+  <si>
+    <t>Herbert, John Rogers</t>
+  </si>
+  <si>
+    <t>Sleap, Joseph Axe</t>
+  </si>
+  <si>
+    <t>Connard, Philip</t>
+  </si>
+  <si>
+    <t>Yeames, William Frederick</t>
+  </si>
+  <si>
+    <t>Hofland, Thomas Christopher</t>
+  </si>
+  <si>
+    <t>Fielding, Anthony Vandyke Copley</t>
+  </si>
+  <si>
+    <t>Wells, Henry Tanworth</t>
+  </si>
+  <si>
+    <t>Rackham, Arthur</t>
+  </si>
+  <si>
+    <t>Hopwood, Henry Silkstone</t>
+  </si>
+  <si>
+    <t>Donaldson, Andrew Brown</t>
+  </si>
+  <si>
+    <t>Osborne, Walter Frederick</t>
+  </si>
+  <si>
+    <t>King, John Henry Yeend</t>
+  </si>
+  <si>
+    <t>Adams, Harry William</t>
+  </si>
+  <si>
+    <t>Blake, Benjamin</t>
+  </si>
+  <si>
+    <t>Boughton, George Henry</t>
+  </si>
+  <si>
+    <t>Smith, George, of Chichester</t>
+  </si>
+  <si>
+    <t>Knight, John Prescott</t>
+  </si>
+  <si>
+    <t>Daniell, Thomas</t>
+  </si>
+  <si>
+    <t>Fuseli, Henry</t>
+  </si>
+  <si>
+    <t>Dighton, William Edward</t>
+  </si>
+  <si>
+    <t>László, Philip Alexius de</t>
+  </si>
+  <si>
+    <t>McLachlan, Thomas Hope</t>
+  </si>
+  <si>
+    <t>Webb, James</t>
+  </si>
+  <si>
+    <t>Farquharson, Joseph</t>
+  </si>
+  <si>
+    <t>Calderon, Philip Hermogenes</t>
+  </si>
+  <si>
+    <t>Nebot, Balthazar</t>
+  </si>
+  <si>
+    <t>Dressler, Conrad</t>
+  </si>
+  <si>
+    <t>Sandby, Thomas</t>
+  </si>
+  <si>
+    <t>Parker, Harold</t>
+  </si>
+  <si>
+    <t>Prout, Samuel</t>
+  </si>
+  <si>
+    <t>Lambert, James</t>
+  </si>
+  <si>
+    <t>Browne, Henriette</t>
+  </si>
+  <si>
     <t>Taylor, Leonard Campbell</t>
   </si>
   <si>
+    <t>Russell, Sir Walter</t>
+  </si>
+  <si>
+    <t>Alexander, Edwin</t>
+  </si>
+  <si>
+    <t>Macbeth, Robert Walker</t>
+  </si>
+  <si>
+    <t>La Thangue, Henry Herbert</t>
+  </si>
+  <si>
+    <t>Marshall, William Calder</t>
+  </si>
+  <si>
+    <t>Pyne, James Baker</t>
+  </si>
+  <si>
+    <t>Thomas, John</t>
+  </si>
+  <si>
+    <t>Gregory, Edward John</t>
+  </si>
+  <si>
+    <t>Young-Hunter, John</t>
+  </si>
+  <si>
+    <t>Smith, John Thomas</t>
+  </si>
+  <si>
+    <t>Dadd, Richard</t>
+  </si>
+  <si>
+    <t>Bough, Samuel</t>
+  </si>
+  <si>
+    <t>Drury, Alfred</t>
+  </si>
+  <si>
+    <t>Hone, Nathaniel</t>
+  </si>
+  <si>
+    <t>Clint, George</t>
+  </si>
+  <si>
+    <t>Rich, Alfred William</t>
+  </si>
+  <si>
+    <t>Howard, Henry</t>
+  </si>
+  <si>
+    <t>Horsley, John Callcott</t>
+  </si>
+  <si>
+    <t>Williams, Hugh William</t>
+  </si>
+  <si>
+    <t>Small, William</t>
+  </si>
+  <si>
+    <t>Manson, James Bolivar</t>
+  </si>
+  <si>
+    <t>Foley, John Henry</t>
+  </si>
+  <si>
+    <t>Wardle, Arthur</t>
+  </si>
+  <si>
+    <t>Calthrop, Claude</t>
+  </si>
+  <si>
+    <t>Edwards, Edwin</t>
+  </si>
+  <si>
+    <t>Willcock, George Burrell</t>
+  </si>
+  <si>
+    <t>Herring, John Frederick</t>
+  </si>
+  <si>
+    <t>Moore, Henry</t>
+  </si>
+  <si>
+    <t>Merritt, Anna Lea</t>
+  </si>
+  <si>
+    <t>Joseph, Samuel</t>
+  </si>
+  <si>
+    <t>Davis, Lady</t>
+  </si>
+  <si>
+    <t>Chambers, George</t>
+  </si>
+  <si>
     <t>Simmonds, William G.</t>
   </si>
   <si>
-    <t>Rushbury, Sir Henry</t>
-  </si>
-  <si>
-    <t>Hart, Solomon Alexander</t>
-  </si>
-  <si>
-    <t>Whitcombe, Thomas</t>
-  </si>
-  <si>
-    <t>Lavery, Sir John</t>
-  </si>
-  <si>
-    <t>Peppercorn, Arthur Douglas</t>
-  </si>
-  <si>
-    <t>Smythe, Lionel Percy</t>
-  </si>
-  <si>
-    <t>Knight, Joseph</t>
+    <t>Prinsep, Valentine Cameron</t>
+  </si>
+  <si>
+    <t>Leader, Benjamin Williams</t>
+  </si>
+  <si>
+    <t>Halswelle, Keeley</t>
+  </si>
+  <si>
+    <t>Stark, Robert</t>
+  </si>
+  <si>
+    <t>Johnson, Charles Edward</t>
+  </si>
+  <si>
+    <t>Frampton, Sir George</t>
+  </si>
+  <si>
+    <t>Draper, Herbert</t>
+  </si>
+  <si>
+    <t>Shannon, Charles</t>
+  </si>
+  <si>
+    <t>Brough, Robert</t>
+  </si>
+  <si>
+    <t>Bird, Edward</t>
+  </si>
+  <si>
+    <t>Martineau, Robert Braithwaite</t>
+  </si>
+  <si>
+    <t>Redgrave, Richard</t>
+  </si>
+  <si>
+    <t>Hall, Oliver</t>
+  </si>
+  <si>
+    <t>Thornycroft, Sir Hamo</t>
+  </si>
+  <si>
+    <t>Taylor, John, of Bath</t>
+  </si>
+  <si>
+    <t>Seddon, John Pollard</t>
+  </si>
+  <si>
+    <t>Stubbs, George</t>
+  </si>
+  <si>
+    <t>Jagger, Charles Sargeant</t>
+  </si>
+  <si>
+    <t>Haden, Sir Francis Seymour</t>
+  </si>
+  <si>
+    <t>Emanuel, Frank L.</t>
+  </si>
+  <si>
+    <t>Stark, James</t>
+  </si>
+  <si>
+    <t>Burnet, James</t>
+  </si>
+  <si>
+    <t>Briggs, Ernest</t>
+  </si>
+  <si>
+    <t>Bayes, Gilbert</t>
+  </si>
+  <si>
+    <t>Allan, Sir William</t>
+  </si>
+  <si>
+    <t>Bone, Sir Muirhead</t>
+  </si>
+  <si>
+    <t>Downman, John</t>
+  </si>
+  <si>
+    <t>Walton, Henry</t>
+  </si>
+  <si>
+    <t>Rooker, Michael Angelo</t>
+  </si>
+  <si>
+    <t>Wallis, Henry</t>
+  </si>
+  <si>
+    <t>Bennett, William</t>
+  </si>
+  <si>
+    <t>Westall, William</t>
+  </si>
+  <si>
+    <t>Lawes-Wittewronge, Sir Charles, Bt</t>
+  </si>
+  <si>
+    <t>Turner, Charles</t>
+  </si>
+  <si>
+    <t>Boxall, Sir William</t>
+  </si>
+  <si>
+    <t>Speed, Harold</t>
+  </si>
+  <si>
+    <t>Hunt, Alfred William</t>
+  </si>
+  <si>
+    <t>Carter, Hugh</t>
+  </si>
+  <si>
+    <t>Wade, Thomas</t>
+  </si>
+  <si>
+    <t>Campion, George B.</t>
+  </si>
+  <si>
+    <t>Brooking, Charles</t>
+  </si>
+  <si>
+    <t>Carter, Samuel John</t>
+  </si>
+  <si>
+    <t>Bell, John Zephaniah</t>
+  </si>
+  <si>
+    <t>Lawson, Cecil</t>
+  </si>
+  <si>
+    <t>Hughes, Arthur</t>
   </si>
   <si>
     <t>Lely, Sir Peter</t>
   </si>
   <si>
-    <t>Brown, Mortimer</t>
-  </si>
-  <si>
-    <t>Dadd, Richard</t>
-  </si>
-  <si>
-    <t>Arnald, George</t>
-  </si>
-  <si>
-    <t>Russell, Sir Walter</t>
+    <t>Knight, John William Buxton</t>
+  </si>
+  <si>
+    <t>Gastineau, Henry</t>
+  </si>
+  <si>
+    <t>Collinson, James</t>
+  </si>
+  <si>
+    <t>Olsson, Julius</t>
+  </si>
+  <si>
+    <t>Fehr, Henry C</t>
   </si>
   <si>
     <t>Armitage, Edward</t>
   </si>
   <si>
-    <t>Cole, George Vicat</t>
-  </si>
-  <si>
-    <t>Fehr, Henry C</t>
-  </si>
-  <si>
-    <t>La Thangue, Henry Herbert</t>
-  </si>
-  <si>
-    <t>Owen, Rev. Edward Pryce</t>
-  </si>
-  <si>
-    <t>Chambers, George</t>
-  </si>
-  <si>
-    <t>Scott, William Bell</t>
-  </si>
-  <si>
-    <t>Horsley, John Callcott</t>
-  </si>
-  <si>
-    <t>MacWhirter, John</t>
-  </si>
-  <si>
-    <t>Wyck, Jan</t>
-  </si>
-  <si>
-    <t>Prout, Samuel</t>
-  </si>
-  <si>
-    <t>Appleyard, Fred</t>
-  </si>
-  <si>
-    <t>Martineau, Robert Braithwaite</t>
-  </si>
-  <si>
-    <t>Gibson, John</t>
-  </si>
-  <si>
-    <t>Kerr, Charles Henry Malcolm</t>
-  </si>
-  <si>
-    <t>Haghe, Louis</t>
-  </si>
-  <si>
-    <t>Lambert, James</t>
-  </si>
-  <si>
-    <t>Fielding, Anthony Vandyke Copley</t>
-  </si>
-  <si>
-    <t>Gregory, Edward John</t>
-  </si>
-  <si>
-    <t>Wallis, Henry</t>
-  </si>
-  <si>
-    <t>Williams, Edward</t>
-  </si>
-  <si>
-    <t>Charnay, Armand</t>
-  </si>
-  <si>
-    <t>Taylor, John, of Bath</t>
-  </si>
-  <si>
-    <t>Collier, The Hon. John</t>
-  </si>
-  <si>
-    <t>Jack, Richard</t>
-  </si>
-  <si>
-    <t>Foster, Myles Birket</t>
-  </si>
-  <si>
-    <t>Blake, Benjamin</t>
-  </si>
-  <si>
-    <t>Small, William</t>
-  </si>
-  <si>
-    <t>Bock, Théophile de</t>
-  </si>
-  <si>
-    <t>Maundrell, Charles</t>
-  </si>
-  <si>
-    <t>Burnet, James</t>
-  </si>
-  <si>
-    <t>Dressler, Conrad</t>
-  </si>
-  <si>
-    <t>Wade, Thomas</t>
-  </si>
-  <si>
-    <t>Edwards, Edwin</t>
-  </si>
-  <si>
-    <t>Fisher, Mark</t>
-  </si>
-  <si>
-    <t>Seddon, Thomas</t>
-  </si>
-  <si>
-    <t>Cozens, John Robert</t>
-  </si>
-  <si>
-    <t>Webb, James</t>
-  </si>
-  <si>
-    <t>Emanuel, Frank L.</t>
-  </si>
-  <si>
-    <t>Yeames, William Frederick</t>
-  </si>
-  <si>
-    <t>Reynolds-Stephens, Sir William</t>
-  </si>
-  <si>
-    <t>Gastineau, Henry</t>
-  </si>
-  <si>
-    <t>Kennington, Thomas Benjamin</t>
-  </si>
-  <si>
-    <t>Stone, Marcus</t>
-  </si>
-  <si>
-    <t>Hughes-Stanton, Sir Herbert</t>
-  </si>
-  <si>
-    <t>Westall, William</t>
-  </si>
-  <si>
-    <t>Dadd, Frank</t>
-  </si>
-  <si>
-    <t>British School 17th century</t>
-  </si>
-  <si>
-    <t>British (?) School 19th century</t>
-  </si>
-  <si>
-    <t>Friedenson, Arthur</t>
-  </si>
-  <si>
-    <t>Crane, Walter</t>
-  </si>
-  <si>
-    <t>Collinson, James</t>
-  </si>
-  <si>
-    <t>Howard, Henry</t>
-  </si>
-  <si>
-    <t>Fildes, Sir Luke</t>
-  </si>
-  <si>
-    <t>McLachlan, Thomas Hope</t>
-  </si>
-  <si>
-    <t>Hacker, Arthur</t>
-  </si>
-  <si>
-    <t>Cruikshank, George</t>
-  </si>
-  <si>
-    <t>Parker, Harold</t>
-  </si>
-  <si>
-    <t>Knight, Charles Parsons</t>
-  </si>
-  <si>
-    <t>Daniell, Thomas</t>
-  </si>
-  <si>
-    <t>Pyne, James Baker</t>
-  </si>
-  <si>
-    <t>Knight, John William Buxton</t>
-  </si>
-  <si>
-    <t>Haynes-Williams, John</t>
-  </si>
-  <si>
-    <t>Browne, Henriette</t>
-  </si>
-  <si>
-    <t>Donaldson, Andrew Brown</t>
-  </si>
-  <si>
-    <t>Thomas, John</t>
-  </si>
-  <si>
-    <t>Bayes, Gilbert</t>
-  </si>
-  <si>
-    <t>Dall, Nicholas Thomas</t>
-  </si>
-  <si>
-    <t>Linton, William</t>
-  </si>
-  <si>
-    <t>László, Philip Alexius de</t>
-  </si>
-  <si>
-    <t>Lane, Theodore</t>
-  </si>
-  <si>
-    <t>Lawson, Cecil</t>
-  </si>
-  <si>
-    <t>Richmond, George</t>
-  </si>
-  <si>
-    <t>Gulich, John</t>
-  </si>
-  <si>
-    <t>Rivers, Leopold</t>
-  </si>
-  <si>
-    <t>Hughes, Arthur</t>
-  </si>
-  <si>
-    <t>Hofland, Thomas Christopher</t>
-  </si>
-  <si>
-    <t>Ricketts, Charles</t>
-  </si>
-  <si>
-    <t>Kelly, Sir Gerald</t>
-  </si>
-  <si>
-    <t>Slaughter, Stephen</t>
-  </si>
-  <si>
-    <t>Mauve, Anton</t>
-  </si>
-  <si>
-    <t>Crome, John Berney</t>
-  </si>
-  <si>
-    <t>Hunt, Alfred William</t>
-  </si>
-  <si>
-    <t>Lion, Flora</t>
-  </si>
-  <si>
-    <t>Wells, Henry Tanworth</t>
-  </si>
-  <si>
-    <t>Lemon, Arthur</t>
-  </si>
-  <si>
-    <t>Rich, Alfred William</t>
-  </si>
-  <si>
-    <t>Branwhite, Nathan</t>
-  </si>
-  <si>
-    <t>Harding, James Duffield</t>
-  </si>
-  <si>
-    <t>Moore, Henry</t>
-  </si>
-  <si>
-    <t>Woodward, Thomas</t>
-  </si>
-  <si>
-    <t>Cockram, George</t>
-  </si>
-  <si>
-    <t>Rackham, Arthur</t>
-  </si>
-  <si>
-    <t>Douglas, Sir William Fettes</t>
-  </si>
-  <si>
-    <t>Herbert, John Rogers</t>
-  </si>
-  <si>
-    <t>Bird, Edward</t>
-  </si>
-  <si>
-    <t>Waterlow, Sir Ernest Albert</t>
-  </si>
-  <si>
-    <t>Chandler, J.W.</t>
-  </si>
-  <si>
-    <t>Prinsep, Valentine Cameron</t>
-  </si>
-  <si>
-    <t>Turner, Daniel</t>
-  </si>
-  <si>
-    <t>Hurlstone, Frederick Yeates</t>
-  </si>
-  <si>
-    <t>Butler, Samuel</t>
-  </si>
-  <si>
-    <t>Wardle, Arthur</t>
-  </si>
-  <si>
-    <t>Briggs, Ernest</t>
-  </si>
-  <si>
-    <t>Wood, F. Derwent</t>
-  </si>
-  <si>
-    <t>Millet, Francis Davis</t>
-  </si>
-  <si>
-    <t>Jagger, Charles Sargeant</t>
-  </si>
-  <si>
-    <t>Frampton, Sir George</t>
-  </si>
-  <si>
-    <t>Rombaux, Egide</t>
-  </si>
-  <si>
-    <t>Leslie, Alexander J.</t>
-  </si>
-  <si>
-    <t>Holmes, Sir Charles John</t>
-  </si>
-  <si>
-    <t>Marshall, William Calder</t>
-  </si>
-  <si>
-    <t>Pickersgill, Frederick Richard</t>
-  </si>
-  <si>
-    <t>Graham, Peter</t>
-  </si>
-  <si>
-    <t>Abbott, Lemuel Francis</t>
-  </si>
-  <si>
-    <t>Zoffany, Johan</t>
-  </si>
-  <si>
-    <t>Rippingille, Edward Villiers</t>
-  </si>
-  <si>
-    <t>Leader, Benjamin Williams</t>
-  </si>
-  <si>
-    <t>Hopwood, Henry Silkstone</t>
-  </si>
-  <si>
-    <t>Inchbold, John William</t>
-  </si>
-  <si>
-    <t>Hand, Thomas</t>
-  </si>
-  <si>
-    <t>Smith, Frederick William</t>
-  </si>
-  <si>
-    <t>Phillips, Thomas</t>
-  </si>
-  <si>
-    <t>Moore, Albert</t>
-  </si>
-  <si>
-    <t>Bundy, Edgar</t>
-  </si>
-  <si>
     <t>Tayler, Frederick</t>
-  </si>
-  <si>
-    <t>Bridell, Frederick Lee</t>
-  </si>
-  <si>
-    <t>Hunter, Colin</t>
-  </si>
-  <si>
-    <t>Stark, James</t>
-  </si>
-  <si>
-    <t>Joseph, Samuel</t>
-  </si>
-  <si>
-    <t>Bone, Sir Muirhead</t>
-  </si>
-  <si>
-    <t>Calthrop, Claude</t>
-  </si>
-  <si>
-    <t>Thomson, Rev. John, of Duddingston</t>
-  </si>
-  <si>
-    <t>Watson, Harry</t>
-  </si>
-  <si>
-    <t>Foley, John Henry</t>
-  </si>
-  <si>
-    <t>Kemp-Welch, Lucy</t>
-  </si>
-  <si>
-    <t>Manson, James Bolivar</t>
-  </si>
-  <si>
-    <t>Thornycroft, Sir Hamo</t>
-  </si>
-  <si>
-    <t>West, Walter</t>
-  </si>
-  <si>
-    <t>Hayes, Edwin</t>
-  </si>
-  <si>
-    <t>Boxall, Sir William</t>
-  </si>
-  <si>
-    <t>North, John William</t>
-  </si>
-  <si>
-    <t>Bramley, Frank</t>
-  </si>
-  <si>
-    <t>Allen, Joseph William</t>
-  </si>
-  <si>
-    <t>O'Neill, George Bernard</t>
-  </si>
-  <si>
-    <t>Campion, George B.</t>
-  </si>
-  <si>
-    <t>Brooking, Charles</t>
-  </si>
-  <si>
-    <t>Vacher, Charles</t>
-  </si>
-  <si>
-    <t>Merritt, Anna Lea</t>
-  </si>
-  <si>
-    <t>Wyllie, Charles William</t>
-  </si>
-  <si>
-    <t>Lucas, John Seymour</t>
-  </si>
-  <si>
-    <t>Wiens, Stephen M.</t>
-  </si>
-  <si>
-    <t>Stubbs, George</t>
-  </si>
-  <si>
-    <t>Glover, John</t>
-  </si>
-  <si>
-    <t>Drury, Alfred</t>
-  </si>
-  <si>
-    <t>Shannon, Charles</t>
-  </si>
-  <si>
-    <t>Dighton, William Edward</t>
-  </si>
-  <si>
-    <t>Herring, John Frederick</t>
-  </si>
-  <si>
-    <t>Zuloaga, Ignacio</t>
-  </si>
-  <si>
-    <t>Osborne, Walter Frederick</t>
-  </si>
-  <si>
-    <t>Speed, Harold</t>
-  </si>
-  <si>
-    <t>Bennett, William</t>
-  </si>
-  <si>
-    <t>Nebot, Balthazar</t>
-  </si>
-  <si>
-    <t>King, John Henry Yeend</t>
-  </si>
-  <si>
-    <t>Johnson, Charles Edward</t>
-  </si>
-  <si>
-    <t>Clint, George</t>
-  </si>
-  <si>
-    <t>Parsons, Alfred</t>
-  </si>
-  <si>
-    <t>Schetky, John Christian</t>
-  </si>
-  <si>
-    <t>Seddon, John Pollard</t>
-  </si>
-  <si>
-    <t>Dixon, Harry</t>
-  </si>
-  <si>
-    <t>Hall, Oliver</t>
-  </si>
-  <si>
-    <t>Behnes, William</t>
-  </si>
-  <si>
-    <t>Hone, Nathaniel</t>
-  </si>
-  <si>
-    <t>Connard, Philip</t>
-  </si>
-  <si>
-    <t>Smith, George, of Chichester</t>
-  </si>
-  <si>
-    <t>Bettes, John</t>
-  </si>
-  <si>
-    <t>Forbes, Stanhope Alexander</t>
-  </si>
-  <si>
-    <t>Westall, Richard</t>
-  </si>
-  <si>
-    <t>Carter, Samuel John</t>
-  </si>
-  <si>
-    <t>Williams, Hugh William</t>
-  </si>
-  <si>
-    <t>Douglas, Edwin</t>
-  </si>
-  <si>
-    <t>Bell, John Zephaniah</t>
-  </si>
-  <si>
-    <t>Rooker, Michael Angelo</t>
-  </si>
-  <si>
-    <t>Brough, Robert</t>
-  </si>
-  <si>
-    <t>Beaumont, Sir George Howland, Bt</t>
-  </si>
-  <si>
-    <t>Gow, Mary</t>
-  </si>
-  <si>
-    <t>Simpson, John</t>
-  </si>
-  <si>
-    <t>Gotch, Thomas Cooper</t>
-  </si>
-  <si>
-    <t>Kneller, Sir Godfrey</t>
-  </si>
-  <si>
-    <t>Alexander, Edwin</t>
-  </si>
-  <si>
-    <t>Hunt, Walter</t>
-  </si>
-  <si>
-    <t>Stevenson, James</t>
-  </si>
-  <si>
-    <t>Lawes-Wittewronge, Sir Charles, Bt</t>
-  </si>
-  <si>
-    <t>Scott, David</t>
-  </si>
-  <si>
-    <t>Smith, John Thomas</t>
-  </si>
-  <si>
-    <t>Butler, Elizabeth</t>
-  </si>
-  <si>
-    <t>Halswelle, Keeley</t>
-  </si>
-  <si>
-    <t>Nisbet, Robert Buchan</t>
-  </si>
-  <si>
-    <t>Butler, Mildred Anne</t>
-  </si>
-  <si>
-    <t>Draper, Herbert</t>
-  </si>
-  <si>
-    <t>Redgrave, Richard</t>
-  </si>
-  <si>
-    <t>Sandby, Thomas</t>
-  </si>
-  <si>
-    <t>Macbeth, Robert Walker</t>
-  </si>
-  <si>
-    <t>Turner, Charles</t>
-  </si>
-  <si>
-    <t>Hudson, Thomas</t>
-  </si>
-  <si>
-    <t>Muhrman, Henry</t>
-  </si>
-  <si>
-    <t>Hatherell, William</t>
-  </si>
-  <si>
-    <t>Philpot, Glyn Warren</t>
-  </si>
-  <si>
-    <t>Willcock, George Burrell</t>
-  </si>
-  <si>
-    <t>Haden, Sir Francis Seymour</t>
-  </si>
-  <si>
-    <t>Bough, Samuel</t>
-  </si>
-  <si>
-    <t>Carter, Hugh</t>
-  </si>
-  <si>
-    <t>Martin, John</t>
-  </si>
-  <si>
-    <t>Parton, Ernest</t>
-  </si>
-  <si>
-    <t>Craig, Frank</t>
-  </si>
-  <si>
-    <t>Fuseli, Henry</t>
-  </si>
-  <si>
-    <t>Strudwick, John Melhuish</t>
-  </si>
-  <si>
-    <t>Downman, John</t>
-  </si>
-  <si>
-    <t>Knight, John Prescott</t>
-  </si>
-  <si>
-    <t>Shannon, Sir James Jebusa</t>
-  </si>
-  <si>
-    <t>Stanley, Lady Dorothy</t>
-  </si>
-  <si>
-    <t>Calderon, Philip Hermogenes</t>
-  </si>
-  <si>
-    <t>Greiffenhagen, Maurice</t>
-  </si>
-  <si>
-    <t>Fisher, Melton</t>
-  </si>
-  <si>
-    <t>Toft, Albert</t>
-  </si>
-  <si>
-    <t>Davis, Lady</t>
-  </si>
-  <si>
-    <t>Allan, Sir William</t>
-  </si>
-  <si>
-    <t>Cozens, Alexander</t>
-  </si>
-  <si>
-    <t>Sleap, Joseph Axe</t>
-  </si>
-  <si>
-    <t>Boughton, George Henry</t>
-  </si>
-  <si>
-    <t>Glendening, Alfred</t>
-  </si>
-  <si>
-    <t>McEvoy, Ambrose</t>
-  </si>
-  <si>
-    <t>Stark, Robert</t>
-  </si>
-  <si>
-    <t>Somerscales, Thomas J.</t>
-  </si>
-  <si>
-    <t>Walton, Henry</t>
-  </si>
-  <si>
-    <t>Olsson, Julius</t>
-  </si>
-  <si>
-    <t>Dobson, William</t>
-  </si>
-  <si>
-    <t>Farquharson, Joseph</t>
-  </si>
-  <si>
-    <t>Young-Hunter, John</t>
-  </si>
-  <si>
-    <t>Logsdail, William</t>
-  </si>
-  <si>
-    <t>Woods, Henry</t>
-  </si>
-  <si>
-    <t>Adams, Harry William</t>
   </si>
 </sst>
 </file>
@@ -1445,28 +1445,28 @@
                   <c:v>Watts, George Frederic</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Lear, Edward</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Keene, Charles Samuel</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Lear, Edward</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Brown, Ford Madox</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Wilkie, Sir David</c:v>
+                  <c:v>Reynolds, Sir Joshua</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Stevens, Alfred</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Reynolds, Sir Joshua</c:v>
+                  <c:v>Wilkie, Sir David</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Rossetti, Dante Gabriel</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Wilson, Richard</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Rossetti, Dante Gabriel</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Stothard, Thomas</c:v>
@@ -1481,1264 +1481,1264 @@
                   <c:v>Millais, Sir John Everett, Bt</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>Leslie, Charles Robert</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>British School 18th century</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Nasmyth, Patrick</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>Etty, William</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Leslie, Charles Robert</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>British School 18th century</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>Smetham, James</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Scott, Samuel</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Lawrence, Sir Thomas</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Dayes, Edward</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Lawrence, Sir Thomas</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Scott, Samuel</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Smetham, James</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>Callcott, Sir Augustus Wall</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mulready, William</c:v>
+                  <c:v>Hogarth, William</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Romney, George</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Hogarth, William</c:v>
+                  <c:v>Mulready, William</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Crome, John</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>Brabazon, Hercules Brabazon</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Morland, George</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Leighton, Lord Frederic</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Lewis, John Frederick</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>Hilton, William, the Younger</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>Brabazon, Hercules Brabazon</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Morland, George</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Leighton, Lord Frederic</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Lewis, John Frederick</c:v>
-                </c:pt>
                 <c:pt idx="36">
+                  <c:v>Cox, David</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>Hoppner, John</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>Blake, William</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>Cox, David</c:v>
-                </c:pt>
                 <c:pt idx="39">
+                  <c:v>Lee, Frederick Richard</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Opie, John</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Charles, James</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Goodwin, Albert</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Linnell, John</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Jones, George</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>Ward, James</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>Walker, Frederick</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>Opie, John</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>Riviere, Briton</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>Lee, Frederick Richard</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Goodwin, Albert</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Linnell, John</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Charles, James</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Jones, George</c:v>
-                </c:pt>
                 <c:pt idx="48">
+                  <c:v>Legros, Alphonse</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Cooke, Edward William</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>Smirke, Robert</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
+                  <c:v>West, Benjamin</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Cattermole, George</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Hook, James Clarke</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>Eastlake, Sir Charles Lock</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>Hunt, William Henry</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Copley, John Singleton</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Cooke, Edward William</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Cattermole, George</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Legros, Alphonse</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>West, Benjamin</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>Deverell, Walter Howell</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>Hook, James Clarke</c:v>
+                  <c:v>Copley, John Singleton</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>Waterhouse, John William</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Collins, William</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Stanfield, Clarkson Frederick</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Gilpin, Sawrey</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Good, Thomas Sword</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Roberts, David</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Landseer, Charles</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Cooper, Thomas Sidney</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>Penley, Aaron Edwin</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>Waterhouse, John William</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="67">
                   <c:v>Orchardson, Sir William Quiller</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>Collins, William</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
+                  <c:v>Sandby, Paul</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Ward, Edward Matthew</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Raeburn, Sir Henry</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Gilbert, Sir John</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Barker, Thomas, of Bath</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Lance, George</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>Brock, Sir Thomas</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>Barker, Thomas, of Bath</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>Stanfield, Clarkson Frederick</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>Landseer, Charles</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Cooper, Thomas Sidney</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>Ward, Edward Matthew</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Roberts, David</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Gilpin, Sawrey</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Gilbert, Sir John</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Lance, George</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Good, Thomas Sword</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Raeburn, Sir Henry</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Sandby, Paul</c:v>
-                </c:pt>
                 <c:pt idx="75">
-                  <c:v>Turner, William, of Oxford</c:v>
+                  <c:v>Maclise, Daniel</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>Macallum, Hamilton</c:v>
+                  <c:v>Williams, Penry</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>Webster, Thomas</c:v>
+                  <c:v>Shee, Sir Martin Archer</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>Beechey, Sir William</c:v>
+                  <c:v>Steer, Philip Wilson</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>Goodall, Frederick</c:v>
+                  <c:v>Davis, Henry William Banks</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>Faed, Thomas</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>Pickersgill, Henry William</c:v>
+                  <c:v>Webster, Thomas</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>Beechey, Sir William</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Turner, William, of Oxford</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Macallum, Hamilton</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>Gow, Andrew Carrick</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="86">
+                  <c:v>Mason, George</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Fantin-Latour, Henri</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Johnson, Cornelius</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Ford, Edward Onslow</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>Tonks, Henry</c:v>
                 </c:pt>
-                <c:pt idx="84">
-                  <c:v>Mason, George</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Ford, Edward Onslow</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Bates, Harry</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Johnson, Cornelius</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Shee, Sir Martin Archer</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Weekes, Henry</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Fantin-Latour, Henri</c:v>
-                </c:pt>
                 <c:pt idx="91">
-                  <c:v>Williams, Penry</c:v>
+                  <c:v>Goodall, Frederick</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>Sargent, John Singer</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>Davis, Henry William Banks</c:v>
+                  <c:v>Bates, Harry</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>Steer, Philip Wilson</c:v>
+                  <c:v>Pickersgill, Henry William</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>Maclise, Daniel</c:v>
+                  <c:v>Weekes, Henry</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>Reid, John Robertson</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Stuart, Gilbert</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Wyatt, Henry</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Burne-Jones, Sir Edward Coley, Bt</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>Nicol, Erskine</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>Cowper, Frank Cadogan</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>Corbet, Matthew Ridley</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>Poynter, Sir Edward</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>Callow, William</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>Hunt, William Holman</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Haydon, Benjamin Robert</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>Jackson, John</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>Constable, Lionel Bicknell</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>Leslie, George Dunlop</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>Geddes, Andrew</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>Gilbert, Sir Alfred</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>Clausen, Sir George</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>Thomas, James Havard</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>Ruskin, John</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>Lancaster, Rev. Richard Hume</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>Varley, John</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>Bonington, Richard Parkes</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>Phillip, John</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>British School 19th century</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>Morland, Henry Robert</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="121">
+                  <c:v>Brown, Sir Arnesby</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>Farquharson, David</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>Briggs, Henry Perronet</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>Holl, Frank</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>Pinwell, George John</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>Uwins, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>Baily, Edward Hodges</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>Pegram, Henry Alfred</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>Armstead, Henry Hugh</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>Pettie, John</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>Chantrey, Sir Francis Legatt</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>Egg, Augustus Leopold</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>Stokes, Adrian</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>Holland, James</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>Dupont, Gainsborough</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>Potter, Frank Huddlestone</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>Hemy, Charles Napier</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>Waller, Samuel</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>Murray, Sir David</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>Boehm, Sir Joseph Edgar</c:v>
+                </c:pt>
+                <c:pt idx="141">
                   <c:v>Cotes, Francis</c:v>
                 </c:pt>
-                <c:pt idx="98">
-                  <c:v>Egg, Augustus Leopold</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Clausen, Sir George</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Jackson, John</c:v>
-                </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="142">
+                  <c:v>Creswick, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>Witherington, William Frederick</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>Maccallum, Andrew</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>Sims, Charles</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>Poole, Paul Falconer</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>Colton, William Robert</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>Singleton, Henry</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>Rothenstein, Sir William</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>Alma-Tadema, Sir Lawrence</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>Orpen, Sir William</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>Newton, Gilbert Stuart</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>Aumonier, James</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>Dicksee, Sir Frank</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>Calvert, Edward</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>Robinson, Sir John Charles</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>Mackennal, Sir Bertram</c:v>
                 </c:pt>
-                <c:pt idx="102">
-                  <c:v>Leslie, George Dunlop</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>Calvert, Edward</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>Stuart, Gilbert</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>Rothenstein, Sir William</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Wyatt, Henry</c:v>
-                </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="158">
+                  <c:v>Fraser, Alexander</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>Tuke, Henry Scott</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>Knight, John Baverstock</c:v>
+                </c:pt>
+                <c:pt idx="161">
                   <c:v>Sadler, Walter Dendy</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="162">
+                  <c:v>Brett, John</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>Poynter, Ambrose</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>Cotman, John Sell</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>Hartwell, Charles Leonard</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>Furse, Charles Wellington</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>Lanteri, Edouard</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>Lewis, George Robert</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>Wyllie, William Lionel</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>Peacock, Ralph</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>Bell, Robert Anning</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>Ibbetson, Julius Caesar</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>Clark, Joseph</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>Storey, George Adolphus</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>Dyce, William</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>Frith, William Powell</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>Von Herkomer, Sir Hubert</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>Strang, William</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>Pomeroy, Frederick William</c:v>
+                </c:pt>
+                <c:pt idx="180">
                   <c:v>Whistler, James Abbott McNeill</c:v>
                 </c:pt>
-                <c:pt idx="109">
-                  <c:v>Gilbert, Sir Alfred</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Strang, William</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Hemy, Charles Napier</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>Pomeroy, Frederick William</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>Maccallum, Andrew</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>Dupont, Gainsborough</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>Fraser, Alexander</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>Creswick, Thomas</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>Phillip, John</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>Robinson, Sir John Charles</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>Varley, John</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>Hartwell, Charles Leonard</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>Waller, Samuel</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>Cowper, Frank Cadogan</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>Ibbetson, Julius Caesar</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>Storey, George Adolphus</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>Haydon, Benjamin Robert</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>Cotman, John Sell</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>Lewis, George Robert</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>Singleton, Henry</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>Burne-Jones, Sir Edward Coley, Bt</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>Clark, Joseph</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>Dicksee, Sir Frank</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>Armstead, Henry Hugh</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>Callow, William</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>Von Herkomer, Sir Hubert</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>Newton, Gilbert Stuart</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Thomas, James Havard</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Farquharson, David</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Boehm, Sir Joseph Edgar</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Uwins, Thomas</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>Tuke, Henry Scott</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Potter, Frank Huddlestone</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Furse, Charles Wellington</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Poynter, Ambrose</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>Aumonier, James</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>Holl, Frank</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>Knight, John Baverstock</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>Ruskin, John</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>Murray, Sir David</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>Poole, Paul Falconer</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>Sims, Charles</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>Bonington, Richard Parkes</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>Baily, Edward Hodges</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>Corbet, Matthew Ridley</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>Holland, James</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>Lanteri, Edouard</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>Colton, William Robert</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>Brett, John</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>Poynter, Sir Edward</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>Reid, John Robertson</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>Alma-Tadema, Sir Lawrence</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>Pinwell, George John</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>Constable, Lionel Bicknell</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>Hunt, William Holman</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>Bell, Robert Anning</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>British School 19th century</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>Geddes, Andrew</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>Chantrey, Sir Francis Legatt</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>Brown, Sir Arnesby</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>Briggs, Henry Perronet</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>Stokes, Adrian</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>Dyce, William</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>Pegram, Henry Alfred</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>Witherington, William Frederick</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>Lancaster, Rev. Richard Hume</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>Wyllie, William Lionel</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>Orpen, Sir William</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>Peacock, Ralph</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>Frith, William Powell</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>Nicol, Erskine</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>Pettie, John</c:v>
-                </c:pt>
                 <c:pt idx="181">
-                  <c:v>John, Sir William Goscombe</c:v>
+                  <c:v>Forbes, Stanhope Alexander</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>Taylor, Leonard Campbell</c:v>
+                  <c:v>Rushbury, Sir Henry</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>Simmonds, William G.</c:v>
+                  <c:v>Kennington, Thomas Benjamin</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>Rushbury, Sir Henry</c:v>
+                  <c:v>Millet, Francis Davis</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>Hart, Solomon Alexander</c:v>
+                  <c:v>Cole, George Vicat</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>Whitcombe, Thomas</c:v>
+                  <c:v>Kelly, Sir Gerald</c:v>
                 </c:pt>
                 <c:pt idx="187">
+                  <c:v>Lane, Theodore</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>Dadd, Frank</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>Jack, Richard</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>Stanley, Lady Dorothy</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>Knight, Joseph</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>Logsdail, William</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>Bettes, John</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>Reynolds-Stephens, Sir William</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>Scott, William Bell</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>Inchbold, John William</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>Lucas, John Seymour</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>Woodward, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>Woods, Henry</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>Pickersgill, Frederick Richard</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>Bundy, Edgar</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>Hand, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>Hudson, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>O'Neill, George Bernard</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>Wood, F. Derwent</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>Foster, Myles Birket</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>Gulich, John</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>Douglas, Sir William Fettes</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>Westall, Richard</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>Abbott, Lemuel Francis</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>Hunter, Colin</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>Shannon, Sir James Jebusa</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>McEvoy, Ambrose</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>Collier, The Hon. John</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>Phillips, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>Smith, Frederick William</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>Rombaux, Egide</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>Brown, Mortimer</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>Parsons, Alfred</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>Hayes, Edwin</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>Dall, Nicholas Thomas</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>Thomson, Rev. John, of Duddingston</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>Gotch, Thomas Cooper</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>Cozens, Alexander</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>Crane, Walter</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>Craig, Frank</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>Branwhite, Nathan</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>Hurlstone, Frederick Yeates</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>Butler, Samuel</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>Wyck, Jan</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>Ricketts, Charles</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>Parton, Ernest</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>Bridell, Frederick Lee</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>Zoffany, Johan</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>Chandler, J.W.</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>Rivers, Leopold</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>British (?) School 19th century</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>Stone, Marcus</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>Fisher, Melton</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>Seddon, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>Hunt, Walter</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>Wyllie, Charles William</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>Nisbet, Robert Buchan</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>West, Walter</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>Charnay, Armand</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>Moore, Albert</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>Appleyard, Fred</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>Arnald, George</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>Haynes-Williams, John</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>Cozens, John Robert</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>Rippingille, Edward Villiers</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>Butler, Elizabeth</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>Friedenson, Arthur</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>Simpson, John</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>Toft, Albert</c:v>
+                </c:pt>
+                <c:pt idx="256">
                   <c:v>Lavery, Sir John</c:v>
                 </c:pt>
-                <c:pt idx="188">
-                  <c:v>Peppercorn, Arthur Douglas</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>Smythe, Lionel Percy</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>Knight, Joseph</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>Lely, Sir Peter</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>Brown, Mortimer</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>Dadd, Richard</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>Arnald, George</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>Russell, Sir Walter</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>Armitage, Edward</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>Cole, George Vicat</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>Fehr, Henry C</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>La Thangue, Henry Herbert</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>Owen, Rev. Edward Pryce</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>Chambers, George</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>Scott, William Bell</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>Horsley, John Callcott</c:v>
-                </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="257">
+                  <c:v>Maundrell, Charles</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>Watson, Harry</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>Douglas, Edwin</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>Haghe, Louis</c:v>
+                </c:pt>
+                <c:pt idx="261">
                   <c:v>MacWhirter, John</c:v>
                 </c:pt>
-                <c:pt idx="205">
-                  <c:v>Wyck, Jan</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>Prout, Samuel</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>Appleyard, Fred</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>Martineau, Robert Braithwaite</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>Gibson, John</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>Kerr, Charles Henry Malcolm</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>Haghe, Louis</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>Lambert, James</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>Fielding, Anthony Vandyke Copley</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>Gregory, Edward John</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>Wallis, Henry</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>Williams, Edward</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>Charnay, Armand</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>Taylor, John, of Bath</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>Collier, The Hon. John</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>Jack, Richard</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>Foster, Myles Birket</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>Blake, Benjamin</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>Small, William</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>Bock, Théophile de</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>Maundrell, Charles</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>Burnet, James</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>Dressler, Conrad</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>Wade, Thomas</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>Edwards, Edwin</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>Fisher, Mark</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>Seddon, Thomas</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>Cozens, John Robert</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>Webb, James</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>Emanuel, Frank L.</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>Yeames, William Frederick</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>Reynolds-Stephens, Sir William</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>Gastineau, Henry</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>Kennington, Thomas Benjamin</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>Stone, Marcus</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>Hughes-Stanton, Sir Herbert</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>Westall, William</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>Dadd, Frank</c:v>
-                </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="262">
                   <c:v>British School 17th century</c:v>
                 </c:pt>
-                <c:pt idx="244">
-                  <c:v>British (?) School 19th century</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>Friedenson, Arthur</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>Crane, Walter</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>Collinson, James</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>Howard, Henry</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>Fildes, Sir Luke</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>McLachlan, Thomas Hope</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>Hacker, Arthur</c:v>
-                </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="263">
+                  <c:v>Dixon, Harry</c:v>
+                </c:pt>
+                <c:pt idx="264">
                   <c:v>Cruikshank, George</c:v>
                 </c:pt>
-                <c:pt idx="253">
-                  <c:v>Parker, Harold</c:v>
-                </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="265">
+                  <c:v>Vacher, Charles</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>Muhrman, Henry</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>Graham, Peter</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>Waterlow, Sir Ernest Albert</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>Butler, Mildred Anne</c:v>
+                </c:pt>
+                <c:pt idx="270">
                   <c:v>Knight, Charles Parsons</c:v>
                 </c:pt>
-                <c:pt idx="255">
-                  <c:v>Daniell, Thomas</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>Pyne, James Baker</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>Knight, John William Buxton</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>Haynes-Williams, John</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>Browne, Henriette</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>Donaldson, Andrew Brown</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>Thomas, John</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>Bayes, Gilbert</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>Dall, Nicholas Thomas</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>Linton, William</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>László, Philip Alexius de</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>Lane, Theodore</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>Lawson, Cecil</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>Richmond, George</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>Gulich, John</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>Rivers, Leopold</c:v>
-                </c:pt>
                 <c:pt idx="271">
-                  <c:v>Hughes, Arthur</c:v>
+                  <c:v>Glover, John</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>Hofland, Thomas Christopher</c:v>
+                  <c:v>Wiens, Stephen M.</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>Ricketts, Charles</c:v>
+                  <c:v>Philpot, Glyn Warren</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>Kelly, Sir Gerald</c:v>
+                  <c:v>Strudwick, John Melhuish</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>Slaughter, Stephen</c:v>
+                  <c:v>Cockram, George</c:v>
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>Mauve, Anton</c:v>
                 </c:pt>
                 <c:pt idx="277">
+                  <c:v>Schetky, John Christian</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>Richmond, George</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>Dobson, William</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>Holmes, Sir Charles John</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>Somerscales, Thomas J.</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>Smythe, Lionel Percy</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>Williams, Edward</c:v>
+                </c:pt>
+                <c:pt idx="284">
                   <c:v>Crome, John Berney</c:v>
                 </c:pt>
-                <c:pt idx="278">
-                  <c:v>Hunt, Alfred William</c:v>
-                </c:pt>
-                <c:pt idx="279">
+                <c:pt idx="285">
+                  <c:v>North, John William</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>Fildes, Sir Luke</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>Kneller, Sir Godfrey</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>Bramley, Frank</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>Peppercorn, Arthur Douglas</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>Linton, William</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>Greiffenhagen, Maurice</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>Gow, Mary</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>Hart, Solomon Alexander</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>Glendening, Alfred</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>Bock, Théophile de</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>Harding, James Duffield</c:v>
+                </c:pt>
+                <c:pt idx="297">
                   <c:v>Lion, Flora</c:v>
                 </c:pt>
-                <c:pt idx="280">
+                <c:pt idx="298">
+                  <c:v>Hacker, Arthur</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>Leslie, Alexander J.</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>Hatherell, William</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>Stevenson, James</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>Scott, David</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>Kerr, Charles Henry Malcolm</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>John, Sir William Goscombe</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>Fisher, Mark</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>Martin, John</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>Owen, Rev. Edward Pryce</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>Allen, Joseph William</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>Behnes, William</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>Slaughter, Stephen</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>Gibson, John</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>Kemp-Welch, Lucy</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>Beaumont, Sir George Howland, Bt</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>Whitcombe, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>Turner, Daniel</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>Hughes-Stanton, Sir Herbert</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>Lemon, Arthur</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>Zuloaga, Ignacio</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>Herbert, John Rogers</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>Sleap, Joseph Axe</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>Connard, Philip</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>Yeames, William Frederick</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>Hofland, Thomas Christopher</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>Fielding, Anthony Vandyke Copley</c:v>
+                </c:pt>
+                <c:pt idx="325">
                   <c:v>Wells, Henry Tanworth</c:v>
                 </c:pt>
-                <c:pt idx="281">
-                  <c:v>Lemon, Arthur</c:v>
-                </c:pt>
-                <c:pt idx="282">
+                <c:pt idx="326">
+                  <c:v>Rackham, Arthur</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>Hopwood, Henry Silkstone</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>Donaldson, Andrew Brown</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>Osborne, Walter Frederick</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>King, John Henry Yeend</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>Adams, Harry William</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>Blake, Benjamin</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>Boughton, George Henry</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>Smith, George, of Chichester</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>Knight, John Prescott</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>Daniell, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>Fuseli, Henry</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>Dighton, William Edward</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>László, Philip Alexius de</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>McLachlan, Thomas Hope</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>Webb, James</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>Farquharson, Joseph</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>Calderon, Philip Hermogenes</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>Nebot, Balthazar</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>Dressler, Conrad</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>Sandby, Thomas</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>Parker, Harold</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>Prout, Samuel</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>Lambert, James</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>Browne, Henriette</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>Taylor, Leonard Campbell</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>Russell, Sir Walter</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>Alexander, Edwin</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>Macbeth, Robert Walker</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>La Thangue, Henry Herbert</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>Marshall, William Calder</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>Pyne, James Baker</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>Thomas, John</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>Gregory, Edward John</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>Young-Hunter, John</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>Smith, John Thomas</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>Dadd, Richard</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>Bough, Samuel</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>Drury, Alfred</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>Hone, Nathaniel</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>Clint, George</c:v>
+                </c:pt>
+                <c:pt idx="367">
                   <c:v>Rich, Alfred William</c:v>
                 </c:pt>
-                <c:pt idx="283">
-                  <c:v>Branwhite, Nathan</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>Harding, James Duffield</c:v>
-                </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="368">
+                  <c:v>Howard, Henry</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>Horsley, John Callcott</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>Williams, Hugh William</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>Small, William</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>Manson, James Bolivar</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>Foley, John Henry</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>Wardle, Arthur</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>Calthrop, Claude</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>Edwards, Edwin</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>Willcock, George Burrell</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>Herring, John Frederick</c:v>
+                </c:pt>
+                <c:pt idx="379">
                   <c:v>Moore, Henry</c:v>
                 </c:pt>
-                <c:pt idx="286">
-                  <c:v>Woodward, Thomas</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>Cockram, George</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>Rackham, Arthur</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>Douglas, Sir William Fettes</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>Herbert, John Rogers</c:v>
-                </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="380">
+                  <c:v>Merritt, Anna Lea</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>Joseph, Samuel</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>Davis, Lady</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>Chambers, George</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>Simmonds, William G.</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>Prinsep, Valentine Cameron</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>Leader, Benjamin Williams</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>Halswelle, Keeley</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>Stark, Robert</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>Johnson, Charles Edward</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>Frampton, Sir George</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>Draper, Herbert</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>Shannon, Charles</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>Brough, Robert</c:v>
+                </c:pt>
+                <c:pt idx="394">
                   <c:v>Bird, Edward</c:v>
                 </c:pt>
-                <c:pt idx="292">
-                  <c:v>Waterlow, Sir Ernest Albert</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>Chandler, J.W.</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>Prinsep, Valentine Cameron</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>Turner, Daniel</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>Hurlstone, Frederick Yeates</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>Butler, Samuel</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>Wardle, Arthur</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>Briggs, Ernest</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>Wood, F. Derwent</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>Millet, Francis Davis</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>Jagger, Charles Sargeant</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>Frampton, Sir George</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>Rombaux, Egide</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>Leslie, Alexander J.</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>Holmes, Sir Charles John</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>Marshall, William Calder</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>Pickersgill, Frederick Richard</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>Graham, Peter</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>Abbott, Lemuel Francis</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>Zoffany, Johan</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>Rippingille, Edward Villiers</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>Leader, Benjamin Williams</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>Hopwood, Henry Silkstone</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>Inchbold, John William</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>Hand, Thomas</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>Smith, Frederick William</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>Phillips, Thomas</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>Moore, Albert</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>Bundy, Edgar</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>Tayler, Frederick</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>Bridell, Frederick Lee</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>Hunter, Colin</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>Stark, James</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>Joseph, Samuel</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>Bone, Sir Muirhead</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>Calthrop, Claude</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>Thomson, Rev. John, of Duddingston</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>Watson, Harry</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>Foley, John Henry</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>Kemp-Welch, Lucy</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>Manson, James Bolivar</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>Thornycroft, Sir Hamo</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>West, Walter</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>Hayes, Edwin</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>Boxall, Sir William</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>North, John William</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>Bramley, Frank</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>Allen, Joseph William</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>O'Neill, George Bernard</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>Campion, George B.</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>Brooking, Charles</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>Vacher, Charles</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>Merritt, Anna Lea</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>Wyllie, Charles William</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>Lucas, John Seymour</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>Wiens, Stephen M.</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>Stubbs, George</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>Glover, John</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>Drury, Alfred</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>Shannon, Charles</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>Dighton, William Edward</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>Herring, John Frederick</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>Zuloaga, Ignacio</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>Osborne, Walter Frederick</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>Speed, Harold</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>Bennett, William</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>Nebot, Balthazar</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>King, John Henry Yeend</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>Johnson, Charles Edward</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>Clint, George</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>Parsons, Alfred</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>Schetky, John Christian</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>Seddon, John Pollard</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>Dixon, Harry</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>Hall, Oliver</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>Behnes, William</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>Hone, Nathaniel</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>Connard, Philip</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>Smith, George, of Chichester</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>Bettes, John</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>Forbes, Stanhope Alexander</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>Westall, Richard</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>Carter, Samuel John</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>Williams, Hugh William</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>Douglas, Edwin</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>Bell, John Zephaniah</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>Rooker, Michael Angelo</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>Brough, Robert</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>Beaumont, Sir George Howland, Bt</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>Gow, Mary</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>Simpson, John</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>Gotch, Thomas Cooper</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>Kneller, Sir Godfrey</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>Alexander, Edwin</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>Hunt, Walter</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>Stevenson, James</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>Lawes-Wittewronge, Sir Charles, Bt</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>Scott, David</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>Smith, John Thomas</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>Butler, Elizabeth</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>Halswelle, Keeley</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>Nisbet, Robert Buchan</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>Butler, Mildred Anne</c:v>
-                </c:pt>
                 <c:pt idx="395">
-                  <c:v>Draper, Herbert</c:v>
+                  <c:v>Martineau, Robert Braithwaite</c:v>
                 </c:pt>
                 <c:pt idx="396">
                   <c:v>Redgrave, Richard</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>Sandby, Thomas</c:v>
+                  <c:v>Hall, Oliver</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>Macbeth, Robert Walker</c:v>
+                  <c:v>Thornycroft, Sir Hamo</c:v>
                 </c:pt>
                 <c:pt idx="399">
+                  <c:v>Taylor, John, of Bath</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>Seddon, John Pollard</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>Stubbs, George</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>Jagger, Charles Sargeant</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>Haden, Sir Francis Seymour</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>Emanuel, Frank L.</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>Stark, James</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>Burnet, James</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>Briggs, Ernest</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>Bayes, Gilbert</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>Allan, Sir William</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>Bone, Sir Muirhead</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>Downman, John</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>Walton, Henry</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>Rooker, Michael Angelo</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>Wallis, Henry</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>Bennett, William</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>Westall, William</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>Lawes-Wittewronge, Sir Charles, Bt</c:v>
+                </c:pt>
+                <c:pt idx="418">
                   <c:v>Turner, Charles</c:v>
                 </c:pt>
-                <c:pt idx="400">
-                  <c:v>Hudson, Thomas</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>Muhrman, Henry</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>Hatherell, William</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>Philpot, Glyn Warren</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>Willcock, George Burrell</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>Haden, Sir Francis Seymour</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>Bough, Samuel</c:v>
-                </c:pt>
-                <c:pt idx="407">
+                <c:pt idx="419">
+                  <c:v>Boxall, Sir William</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>Speed, Harold</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>Hunt, Alfred William</c:v>
+                </c:pt>
+                <c:pt idx="422">
                   <c:v>Carter, Hugh</c:v>
                 </c:pt>
-                <c:pt idx="408">
-                  <c:v>Martin, John</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>Parton, Ernest</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>Craig, Frank</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>Fuseli, Henry</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>Strudwick, John Melhuish</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>Downman, John</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>Knight, John Prescott</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>Shannon, Sir James Jebusa</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>Stanley, Lady Dorothy</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>Calderon, Philip Hermogenes</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>Greiffenhagen, Maurice</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>Fisher, Melton</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>Toft, Albert</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>Davis, Lady</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>Allan, Sir William</c:v>
-                </c:pt>
                 <c:pt idx="423">
-                  <c:v>Cozens, Alexander</c:v>
+                  <c:v>Wade, Thomas</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>Sleap, Joseph Axe</c:v>
+                  <c:v>Campion, George B.</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>Boughton, George Henry</c:v>
+                  <c:v>Brooking, Charles</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>Glendening, Alfred</c:v>
+                  <c:v>Carter, Samuel John</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>McEvoy, Ambrose</c:v>
+                  <c:v>Bell, John Zephaniah</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>Stark, Robert</c:v>
+                  <c:v>Lawson, Cecil</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>Somerscales, Thomas J.</c:v>
+                  <c:v>Hughes, Arthur</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>Walton, Henry</c:v>
+                  <c:v>Lely, Sir Peter</c:v>
                 </c:pt>
                 <c:pt idx="431">
+                  <c:v>Knight, John William Buxton</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>Gastineau, Henry</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>Collinson, James</c:v>
+                </c:pt>
+                <c:pt idx="434">
                   <c:v>Olsson, Julius</c:v>
                 </c:pt>
-                <c:pt idx="432">
-                  <c:v>Dobson, William</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>Farquharson, Joseph</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>Young-Hunter, John</c:v>
-                </c:pt>
                 <c:pt idx="435">
-                  <c:v>Logsdail, William</c:v>
+                  <c:v>Fehr, Henry C</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>Woods, Henry</c:v>
+                  <c:v>Armitage, Edward</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>Adams, Harry William</c:v>
+                  <c:v>Tayler, Frederick</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
